--- a/ppt/지영 _감귤 생산량/2018년 감귤류3종,도외,도내비교.xlsx
+++ b/ppt/지영 _감귤 생산량/2018년 감귤류3종,도외,도내비교.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workR\1-project\ppt\지영 _감귤 생산량\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A761E48-DDAF-4585-AF22-AB0C7AC63FFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244885DF-C0EB-4F64-819F-F91C11D7B4B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="11520" xr2:uid="{A5F5320B-3C6B-4507-AF2C-8ADD07AEBCEE}"/>
   </bookViews>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>도외상품 출하량t</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>도내소비택배포함</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -55,10 +51,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>도외상품  출하량t</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>월동온주        출하량천t</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -68,6 +60,14 @@
   </si>
   <si>
     <t>2015년 월동온주 ’14년산에 비해 42%, ’13년산에 비해 37% 감소하였음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>도외상품 출하량</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>도외상품  출하량</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -644,7 +644,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -663,31 +663,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="26.25">
@@ -728,7 +728,7 @@
         <v>19.2</v>
       </c>
       <c r="N2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="26.25">

--- a/ppt/지영 _감귤 생산량/2018년 감귤류3종,도외,도내비교.xlsx
+++ b/ppt/지영 _감귤 생산량/2018년 감귤류3종,도외,도내비교.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workR\1-project\ppt\지영 _감귤 생산량\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244885DF-C0EB-4F64-819F-F91C11D7B4B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88A9DB0-63E8-4635-B97F-BD34B21B0DCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="11520" xr2:uid="{A5F5320B-3C6B-4507-AF2C-8ADD07AEBCEE}"/>
   </bookViews>
@@ -25,36 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>연도</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>제주도내생산량 천t</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>전년대비증감률</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>노지온주        출하량천t</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>도내소비택배포함</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>하우스온주        출하량천t</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>월동온주        출하량천t</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>2017년 월동온주 도외출하량은 11,043톤으로 ’16년산에 비해 30% 감소</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -63,11 +39,43 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>도외상품 출하량</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>도외상품  출하량</t>
+    <t>노지 도외상품 출하량</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>노지 도내소비(택배포함)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>하우스온주 도외  출하량</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>하우스온주 도내소비(택배포함)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>월동온주 도외  출하량</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>월동온주 도내소비(택배포함)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>노지온주        출하량  천t</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>하우스온주        출하량  천t</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>월동온주        출하량  천t</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주도 내  생산량  천t</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -75,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,13 +153,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color indexed="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF006100"/>
@@ -161,26 +162,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF9C0006"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,7 +259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -291,13 +278,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1">
@@ -306,10 +287,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1">
@@ -318,10 +296,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -641,283 +616,262 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1815C448-F9F0-455C-ABCB-501A16083707}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="57">
+    <row r="1" spans="1:13" ht="75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" ht="26.25">
+    <row r="2" spans="1:13" ht="20.25">
       <c r="A2" s="4">
         <v>2013</v>
       </c>
       <c r="B2" s="5">
         <v>672</v>
       </c>
-      <c r="C2" s="6">
-        <v>4</v>
+      <c r="C2" s="4">
+        <v>554</v>
       </c>
       <c r="D2" s="4">
-        <v>554</v>
+        <v>375</v>
       </c>
       <c r="E2" s="4">
-        <v>375</v>
+        <v>82</v>
       </c>
       <c r="F2" s="4">
-        <v>82</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="G2" s="4">
-        <v>19.600000000000001</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="H2" s="4">
-        <v>16.399999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="I2" s="4">
-        <v>3.1</v>
+        <v>35</v>
       </c>
       <c r="J2" s="4">
-        <v>35</v>
+        <v>15.5</v>
       </c>
       <c r="K2" s="4">
-        <v>15.5</v>
-      </c>
-      <c r="L2" s="4">
         <v>19.2</v>
       </c>
-      <c r="N2" t="s">
-        <v>8</v>
+      <c r="M2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="26.25">
+    <row r="3" spans="1:13" ht="20.25">
       <c r="A3" s="4">
         <v>2014</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>696</v>
       </c>
-      <c r="C3" s="8">
-        <v>-9</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="C3" s="7">
         <v>573</v>
       </c>
-      <c r="E3" s="9">
+      <c r="D3" s="7">
         <v>333</v>
       </c>
-      <c r="F3" s="9">
+      <c r="E3" s="7">
         <v>78</v>
       </c>
-      <c r="G3" s="9">
+      <c r="F3" s="7">
         <v>21.6</v>
       </c>
-      <c r="H3" s="9">
+      <c r="G3" s="7">
         <v>19.2</v>
       </c>
-      <c r="I3" s="9">
+      <c r="H3" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J3" s="9">
+      <c r="I3" s="7">
         <v>36</v>
       </c>
-      <c r="K3" s="9">
+      <c r="J3" s="7">
         <v>16.600000000000001</v>
       </c>
-      <c r="L3" s="9">
+      <c r="K3" s="7">
         <v>19.2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="26.25">
+    <row r="4" spans="1:13" ht="20.25">
       <c r="A4" s="4">
         <v>2015</v>
       </c>
       <c r="B4" s="5">
         <v>635</v>
       </c>
-      <c r="C4" s="6">
-        <v>-9</v>
+      <c r="C4" s="4">
+        <v>519</v>
       </c>
       <c r="D4" s="4">
-        <v>519</v>
+        <v>283</v>
       </c>
       <c r="E4" s="4">
-        <v>283</v>
+        <v>147</v>
       </c>
       <c r="F4" s="4">
-        <v>147</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="G4" s="4">
-        <v>20.399999999999999</v>
+        <v>18.2</v>
       </c>
       <c r="H4" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="I4" s="8">
+        <v>28</v>
+      </c>
+      <c r="J4" s="8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K4" s="8">
         <v>18.2</v>
       </c>
-      <c r="I4" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="J4" s="10">
-        <v>28</v>
-      </c>
-      <c r="K4" s="10">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="L4" s="10">
-        <v>18.2</v>
-      </c>
     </row>
-    <row r="5" spans="1:14" ht="26.25">
+    <row r="5" spans="1:13" ht="20.25">
       <c r="A5" s="4">
         <v>2016</v>
       </c>
       <c r="B5" s="5">
         <v>599</v>
       </c>
-      <c r="C5" s="6">
-        <v>-6</v>
+      <c r="C5" s="4">
+        <v>467</v>
       </c>
       <c r="D5" s="4">
-        <v>467</v>
+        <v>281</v>
       </c>
       <c r="E5" s="4">
-        <v>281</v>
+        <v>124</v>
       </c>
       <c r="F5" s="4">
-        <v>124</v>
+        <v>21.7</v>
       </c>
       <c r="G5" s="4">
-        <v>21.7</v>
+        <v>19.5</v>
       </c>
       <c r="H5" s="4">
-        <v>19.5</v>
+        <v>2.1</v>
       </c>
       <c r="I5" s="4">
-        <v>2.1</v>
+        <v>37</v>
       </c>
       <c r="J5" s="4">
-        <v>37</v>
+        <v>15.8</v>
       </c>
       <c r="K5" s="4">
-        <v>15.8</v>
-      </c>
-      <c r="L5" s="4">
         <v>21.4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="26.25">
+    <row r="6" spans="1:13" ht="20.25">
       <c r="A6" s="4">
         <v>2017</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>576</v>
       </c>
-      <c r="C6" s="12">
-        <v>-4</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="C6" s="10">
         <v>440</v>
       </c>
-      <c r="E6" s="13">
+      <c r="D6" s="10">
         <v>264</v>
       </c>
-      <c r="F6" s="13">
+      <c r="E6" s="10">
         <v>99</v>
       </c>
-      <c r="G6" s="13">
+      <c r="F6" s="10">
         <v>22.6</v>
       </c>
-      <c r="H6" s="13">
+      <c r="G6" s="10">
         <v>20.5</v>
       </c>
-      <c r="I6" s="13">
+      <c r="H6" s="10">
         <v>2.1</v>
       </c>
-      <c r="J6" s="13">
+      <c r="I6" s="10">
         <v>35</v>
       </c>
-      <c r="K6" s="14">
+      <c r="J6" s="11">
         <v>11</v>
       </c>
-      <c r="L6" s="13">
+      <c r="K6" s="10">
         <v>23.8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="26.25">
+    <row r="7" spans="1:13" ht="20.25">
       <c r="A7" s="4">
         <v>2018</v>
       </c>
       <c r="B7" s="5">
         <v>607</v>
       </c>
-      <c r="C7" s="15">
-        <v>5</v>
+      <c r="C7" s="4">
+        <v>467</v>
       </c>
       <c r="D7" s="4">
-        <v>467</v>
+        <v>281</v>
       </c>
       <c r="E7" s="4">
-        <v>281</v>
+        <v>120</v>
       </c>
       <c r="F7" s="4">
-        <v>120</v>
+        <v>22.9</v>
       </c>
       <c r="G7" s="4">
-        <v>22.9</v>
+        <v>20</v>
       </c>
       <c r="H7" s="4">
-        <v>20</v>
+        <v>2.9</v>
       </c>
       <c r="I7" s="4">
-        <v>2.9</v>
+        <v>37</v>
       </c>
       <c r="J7" s="4">
-        <v>37</v>
+        <v>15.4</v>
       </c>
       <c r="K7" s="4">
-        <v>15.4</v>
-      </c>
-      <c r="L7" s="4">
         <v>21.5</v>
       </c>
     </row>
